--- a/test/template.xlsx
+++ b/test/template.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\xlsx-injector\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4A6DE0-3EE4-4320-BCEA-D34191A7FD29}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86333722-5834-40C8-A2DF-342D9004BA17}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12368" windowHeight="11520" xr2:uid="{B2EA801B-BBF6-43CD-9022-0DE376CA5F57}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12368" windowHeight="11520" activeTab="2" xr2:uid="{B2EA801B-BBF6-43CD-9022-0DE376CA5F57}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>co2</t>
   </si>
@@ -420,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA48FA18-139F-4775-9758-8AE568048850}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -496,7 +497,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -531,4 +532,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220172CA-D9C9-4C23-B635-8B0F5E2DEF7D}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>